--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,63 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B15" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C15" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D15" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="E15" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="F15" t="n">
+        <v>317.0499877929688</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>23</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -1309,7 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,63 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B16" t="n">
+        <v>310</v>
+      </c>
+      <c r="C16" t="n">
+        <v>325</v>
+      </c>
+      <c r="D16" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>312.0499877929688</v>
+      </c>
+      <c r="F16" t="n">
+        <v>312.0499877929688</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>24</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -1365,7 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,6 +1369,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B17" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="C17" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="D17" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="E17" t="n">
+        <v>405.1499938964844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>405.1499938964844</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26937984</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B18" t="n">
+        <v>394.9500122070312</v>
+      </c>
+      <c r="C18" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>454</v>
+      </c>
+      <c r="F18" t="n">
+        <v>454</v>
+      </c>
+      <c r="G18" t="n">
+        <v>23402642</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1421,7 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1475,7 +1477,1829 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B19" t="n">
+        <v>456.7000122070312</v>
+      </c>
+      <c r="C19" t="n">
+        <v>530</v>
+      </c>
+      <c r="D19" t="n">
+        <v>454.2000122070312</v>
+      </c>
+      <c r="E19" t="n">
+        <v>486.2000122070312</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>12003003</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>27</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B20" t="n">
+        <v>491</v>
+      </c>
+      <c r="C20" t="n">
+        <v>493.4500122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>428</v>
+      </c>
+      <c r="E20" t="n">
+        <v>445.0499877929688</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>6259549</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>28</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B21" t="n">
+        <v>462</v>
+      </c>
+      <c r="C21" t="n">
+        <v>485</v>
+      </c>
+      <c r="D21" t="n">
+        <v>422.0499877929688</v>
+      </c>
+      <c r="E21" t="n">
+        <v>432.7000122070312</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2885876</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>29</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B22" t="n">
+        <v>426</v>
+      </c>
+      <c r="C22" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="D22" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>456.2999877929688</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>2320739</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>30</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B23" t="n">
+        <v>460</v>
+      </c>
+      <c r="C23" t="n">
+        <v>479</v>
+      </c>
+      <c r="D23" t="n">
+        <v>436.1499938964844</v>
+      </c>
+      <c r="E23" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1197466</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>29</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B24" t="n">
+        <v>425.1499938964844</v>
+      </c>
+      <c r="C24" t="n">
+        <v>440</v>
+      </c>
+      <c r="D24" t="n">
+        <v>380</v>
+      </c>
+      <c r="E24" t="n">
+        <v>423.8500061035156</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>2402388</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>32</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B25" t="n">
+        <v>422</v>
+      </c>
+      <c r="C25" t="n">
+        <v>425</v>
+      </c>
+      <c r="D25" t="n">
+        <v>390.6000061035156</v>
+      </c>
+      <c r="E25" t="n">
+        <v>394.1499938964844</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>796184</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>33</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B26" t="n">
+        <v>400.1499938964844</v>
+      </c>
+      <c r="C26" t="n">
+        <v>410</v>
+      </c>
+      <c r="D26" t="n">
+        <v>392</v>
+      </c>
+      <c r="E26" t="n">
+        <v>401.2999877929688</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>967201</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>19</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>34</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B27" t="n">
+        <v>402</v>
+      </c>
+      <c r="C27" t="n">
+        <v>403.9500122070312</v>
+      </c>
+      <c r="D27" t="n">
+        <v>380</v>
+      </c>
+      <c r="E27" t="n">
+        <v>385.5499877929688</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>961094</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>35</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B28" t="n">
+        <v>389.9500122070312</v>
+      </c>
+      <c r="C28" t="n">
+        <v>391.2000122070312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>348.5499877929688</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>4284652</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>36</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B29" t="n">
+        <v>349.5499877929688</v>
+      </c>
+      <c r="C29" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>331.1499938964844</v>
+      </c>
+      <c r="E29" t="n">
+        <v>346.5499877929688</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1651218</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B30" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="D30" t="n">
+        <v>313.6499938964844</v>
+      </c>
+      <c r="E30" t="n">
+        <v>327.7000122070312</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1831658</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>38</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B31" t="n">
+        <v>333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>338</v>
+      </c>
+      <c r="D31" t="n">
+        <v>315</v>
+      </c>
+      <c r="E31" t="n">
+        <v>317.3500061035156</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1244477</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>23</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B32" t="n">
+        <v>318</v>
+      </c>
+      <c r="C32" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="D32" t="n">
+        <v>305</v>
+      </c>
+      <c r="E32" t="n">
+        <v>308.6000061035156</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1140274</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>40</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B33" t="n">
+        <v>316</v>
+      </c>
+      <c r="C33" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="E33" t="n">
+        <v>327</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>2674237</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>41</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B34" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>349</v>
+      </c>
+      <c r="D34" t="n">
+        <v>321</v>
+      </c>
+      <c r="E34" t="n">
+        <v>325.8999938964844</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1976711</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>42</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B35" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="C35" t="n">
+        <v>328.6499938964844</v>
+      </c>
+      <c r="D35" t="n">
+        <v>297.2999877929688</v>
+      </c>
+      <c r="E35" t="n">
+        <v>312.1000061035156</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1289153</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>21</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>43</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B36" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="C36" t="n">
+        <v>324.7000122070312</v>
+      </c>
+      <c r="D36" t="n">
+        <v>297</v>
+      </c>
+      <c r="E36" t="n">
+        <v>324.4500122070312</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1357638</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>44</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B37" t="n">
+        <v>324.3999938964844</v>
+      </c>
+      <c r="C37" t="n">
+        <v>375</v>
+      </c>
+      <c r="D37" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="E37" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>5788912</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>45</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B38" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="C38" t="n">
+        <v>365</v>
+      </c>
+      <c r="D38" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E38" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1559102</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>46</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B39" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C39" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D39" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="E39" t="n">
+        <v>270.6499938964844</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>3986068</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>47</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B40" t="n">
+        <v>278</v>
+      </c>
+      <c r="C40" t="n">
+        <v>289.4500122070312</v>
+      </c>
+      <c r="D40" t="n">
+        <v>262.6000061035156</v>
+      </c>
+      <c r="E40" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1955391</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" t="n">
+        <v>25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B41" t="n">
+        <v>274.6499938964844</v>
+      </c>
+      <c r="C41" t="n">
+        <v>295.3500061035156</v>
+      </c>
+      <c r="D41" t="n">
+        <v>270.75</v>
+      </c>
+      <c r="E41" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1683769</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>49</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B42" t="n">
+        <v>288.9500122070312</v>
+      </c>
+      <c r="C42" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="D42" t="n">
+        <v>268.7000122070312</v>
+      </c>
+      <c r="E42" t="n">
+        <v>274.3500061035156</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1335142</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>50</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B43" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="C43" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="D43" t="n">
+        <v>261</v>
+      </c>
+      <c r="E43" t="n">
+        <v>262.1000061035156</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1538673</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>51</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B44" t="n">
+        <v>262.2000122070312</v>
+      </c>
+      <c r="C44" t="n">
+        <v>267.6000061035156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>254</v>
+      </c>
+      <c r="E44" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>866651</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I44" t="n">
+        <v>12</v>
+      </c>
+      <c r="J44" t="n">
+        <v>23</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>52</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B45" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="C45" t="n">
+        <v>261.510009765625</v>
+      </c>
+      <c r="D45" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="E45" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>1413163</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12</v>
+      </c>
+      <c r="J45" t="n">
+        <v>30</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B46" t="n">
+        <v>256</v>
+      </c>
+      <c r="C46" t="n">
+        <v>275.7099914550781</v>
+      </c>
+      <c r="D46" t="n">
+        <v>236.2100067138672</v>
+      </c>
+      <c r="E46" t="n">
+        <v>256.010009765625</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>2048098</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B47" t="n">
+        <v>254</v>
+      </c>
+      <c r="C47" t="n">
+        <v>254</v>
+      </c>
+      <c r="D47" t="n">
+        <v>232</v>
+      </c>
+      <c r="E47" t="n">
+        <v>248.7799987792969</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1765844</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B48" t="n">
+        <v>251.3999938964844</v>
+      </c>
+      <c r="C48" t="n">
+        <v>255.1900024414062</v>
+      </c>
+      <c r="D48" t="n">
+        <v>226.6300048828125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1562308</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B49" t="n">
+        <v>245</v>
+      </c>
+      <c r="C49" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>229</v>
+      </c>
+      <c r="E49" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>2589348</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B50" t="n">
+        <v>239.9100036621094</v>
+      </c>
+      <c r="C50" t="n">
+        <v>247.4299926757812</v>
+      </c>
+      <c r="D50" t="n">
+        <v>198.7299957275391</v>
+      </c>
+      <c r="E50" t="n">
+        <v>199.9600067138672</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>4182224</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B51" t="n">
+        <v>200</v>
+      </c>
+      <c r="C51" t="n">
+        <v>200.9900054931641</v>
+      </c>
+      <c r="D51" t="n">
+        <v>174.1499938964844</v>
+      </c>
+      <c r="E51" t="n">
+        <v>174.1499938964844</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2261746</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B52" t="n">
+        <v>173.9400024414062</v>
+      </c>
+      <c r="C52" t="n">
+        <v>178.9900054931641</v>
+      </c>
+      <c r="D52" t="n">
+        <v>159.5099945068359</v>
+      </c>
+      <c r="E52" t="n">
+        <v>169.3800048828125</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>2338851</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B53" t="n">
+        <v>167.9900054931641</v>
+      </c>
+      <c r="C53" t="n">
+        <v>168.3999938964844</v>
+      </c>
+      <c r="D53" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="E53" t="n">
+        <v>153.4299926757812</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1124904</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>24</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/EXICOM.NS.xlsx
+++ b/stock_historical_data/1wk/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +1531,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1583,7 +1585,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1635,7 +1639,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1687,7 +1693,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1739,7 +1747,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1791,7 +1801,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1843,7 +1855,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1895,7 +1909,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1947,7 +1963,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1999,7 +2017,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2051,7 +2071,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2103,7 +2125,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2155,7 +2179,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2207,7 +2233,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2259,7 +2287,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2311,7 +2341,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2363,7 +2395,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2415,7 +2449,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2467,7 +2503,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2519,7 +2557,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2571,7 +2611,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2623,7 +2665,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2675,7 +2719,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2727,7 +2773,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2779,7 +2827,9 @@
       <c r="Q43" t="n">
         <v>2</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2831,7 +2881,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2883,7 +2935,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2935,7 +2989,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2987,7 +3043,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3039,7 +3097,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3091,7 +3151,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3143,7 +3205,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3195,7 +3259,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3247,7 +3313,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3299,7 +3367,477 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B54" t="n">
+        <v>156.9900054931641</v>
+      </c>
+      <c r="C54" t="n">
+        <v>161.8000030517578</v>
+      </c>
+      <c r="D54" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>155.6100006103516</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>2297333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B55" t="n">
+        <v>154.4700012207031</v>
+      </c>
+      <c r="C55" t="n">
+        <v>157</v>
+      </c>
+      <c r="D55" t="n">
+        <v>134.6499938964844</v>
+      </c>
+      <c r="E55" t="n">
+        <v>136.2200012207031</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>1658994</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>11</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B56" t="n">
+        <v>136.2299957275391</v>
+      </c>
+      <c r="C56" t="n">
+        <v>153.9100036621094</v>
+      </c>
+      <c r="D56" t="n">
+        <v>130.3699951171875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>153.9100036621094</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>2497598</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>17</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B57" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>169.6799926757812</v>
+      </c>
+      <c r="D57" t="n">
+        <v>146.1999969482422</v>
+      </c>
+      <c r="E57" t="n">
+        <v>147.4400024414062</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>5602284</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>13</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B58" t="n">
+        <v>147.4400024414062</v>
+      </c>
+      <c r="C58" t="n">
+        <v>168.9499969482422</v>
+      </c>
+      <c r="D58" t="n">
+        <v>144.4900054931641</v>
+      </c>
+      <c r="E58" t="n">
+        <v>157.6300048828125</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2348599</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>31</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B59" t="n">
+        <v>141.8600006103516</v>
+      </c>
+      <c r="C59" t="n">
+        <v>159</v>
+      </c>
+      <c r="D59" t="n">
+        <v>141.8600006103516</v>
+      </c>
+      <c r="E59" t="n">
+        <v>156.6399993896484</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>1594639</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B60" t="n">
+        <v>156.6399993896484</v>
+      </c>
+      <c r="C60" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>156.6399993896484</v>
+      </c>
+      <c r="E60" t="n">
+        <v>173.8800048828125</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2176689</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>14</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>16</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B61" t="n">
+        <v>175.3999938964844</v>
+      </c>
+      <c r="C61" t="n">
+        <v>178.8999938964844</v>
+      </c>
+      <c r="D61" t="n">
+        <v>160.5399932861328</v>
+      </c>
+      <c r="E61" t="n">
+        <v>162.5899963378906</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1897200</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>21</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>17</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B62" t="n">
+        <v>160</v>
+      </c>
+      <c r="C62" t="n">
+        <v>164.8500061035156</v>
+      </c>
+      <c r="D62" t="n">
+        <v>153.25</v>
+      </c>
+      <c r="E62" t="n">
+        <v>154.1699981689453</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>691219</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>28</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
